--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>NUMBER</t>
   </si>
@@ -330,6 +330,84 @@
   </si>
   <si>
     <t>0 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>11:00 PM</t>
+  </si>
+  <si>
+    <t>K4205</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>(AMS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalitta Air </t>
+  </si>
+  <si>
+    <t>B744</t>
+  </si>
+  <si>
+    <t>(N702CK)</t>
+  </si>
+  <si>
+    <t>10:53 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -7 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>5:40 AM</t>
+  </si>
+  <si>
+    <t>LO3804</t>
+  </si>
+  <si>
+    <t>(SP-LNH)</t>
+  </si>
+  <si>
+    <t>5:50 AM</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>FR8225</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>(BRS)</t>
+  </si>
+  <si>
+    <t>(EI-EFC)</t>
+  </si>
+  <si>
+    <t>10:39 AM</t>
+  </si>
+  <si>
+    <t>(EI-EKF)</t>
+  </si>
+  <si>
+    <t>11:37 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LMG)</t>
+  </si>
+  <si>
+    <t>11:57 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -8 minutes</t>
   </si>
 </sst>
 </file>
@@ -374,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -933,6 +1011,191 @@
       </c>
       <c r="M15" s="0"/>
     </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M18" s="0"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="M20" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
   <si>
     <t>NUMBER</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>0 hours, -8 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LIA)</t>
+  </si>
+  <si>
+    <t>2:58 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LID)</t>
+  </si>
+  <si>
+    <t>5:12 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 27 minutes</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1196,6 +1214,80 @@
       </c>
       <c r="M20" s="0"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M22" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="196">
   <si>
     <t>NUMBER</t>
   </si>
@@ -426,6 +426,180 @@
   </si>
   <si>
     <t>0 hours, 27 minutes</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>12:05 AM</t>
+  </si>
+  <si>
+    <t>PQ7552</t>
+  </si>
+  <si>
+    <t>Sharm el-Sheikh</t>
+  </si>
+  <si>
+    <t>(SSH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmartWings </t>
+  </si>
+  <si>
+    <t>(UR-SQQ)</t>
+  </si>
+  <si>
+    <t>12:23 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>5:44 AM</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>PQ2025</t>
+  </si>
+  <si>
+    <t>Antalya</t>
+  </si>
+  <si>
+    <t>(AYT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyUp Airlines </t>
+  </si>
+  <si>
+    <t>(UR-SQH)</t>
+  </si>
+  <si>
+    <t>2:28 PM</t>
+  </si>
+  <si>
+    <t>4 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DHE)</t>
+  </si>
+  <si>
+    <t>10:36 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 31 minutes</t>
+  </si>
+  <si>
+    <t>11:35 AM</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>Farnborough</t>
+  </si>
+  <si>
+    <t>(FAB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air X Charter </t>
+  </si>
+  <si>
+    <t>E35L</t>
+  </si>
+  <si>
+    <t>(9H-JPC)</t>
+  </si>
+  <si>
+    <t>11:58 AM</t>
+  </si>
+  <si>
+    <t>(HA-LYH)</t>
+  </si>
+  <si>
+    <t>11:54 AM</t>
+  </si>
+  <si>
+    <t>(SP-LIK)</t>
+  </si>
+  <si>
+    <t>12:25 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 25 minutes</t>
+  </si>
+  <si>
+    <t>SK7182</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>(OSL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAS </t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>(LN-RPJ)</t>
+  </si>
+  <si>
+    <t>12:17 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMD)</t>
+  </si>
+  <si>
+    <t>3:03 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>E170</t>
+  </si>
+  <si>
+    <t>(SP-LDH)</t>
+  </si>
+  <si>
+    <t>4:40 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -5 minutes</t>
+  </si>
+  <si>
+    <t>6:20 PM</t>
+  </si>
+  <si>
+    <t>6:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 21 minutes</t>
+  </si>
+  <si>
+    <t>8:15 PM</t>
+  </si>
+  <si>
+    <t>(G-RUKH)</t>
+  </si>
+  <si>
+    <t>8:48 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 33 minutes</t>
+  </si>
+  <si>
+    <t>(G-WUKG)</t>
+  </si>
+  <si>
+    <t>10:02 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 12 minutes</t>
   </si>
 </sst>
 </file>
@@ -470,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1288,6 +1462,487 @@
       </c>
       <c r="M22" s="0"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K24" s="0"/>
+      <c r="L24" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="K25" s="0"/>
+      <c r="L25" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="M25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="K26" s="0"/>
+      <c r="L26" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="M26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K27" s="0"/>
+      <c r="L27" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="K28" s="0"/>
+      <c r="L28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M28" s="0"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="M29" s="0"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="K30" s="0"/>
+      <c r="L30" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="L31" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="M32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="K33" s="0"/>
+      <c r="L33" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="M33" s="0"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="K34" s="0"/>
+      <c r="L34" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="M34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M35" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
   <si>
     <t>NUMBER</t>
   </si>
@@ -600,6 +600,78 @@
   </si>
   <si>
     <t>0 hours, 12 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>4:45 AM</t>
+  </si>
+  <si>
+    <t>AEG482</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>(FRA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airest </t>
+  </si>
+  <si>
+    <t>SF34</t>
+  </si>
+  <si>
+    <t>(ES-LSI)</t>
+  </si>
+  <si>
+    <t>4:44 AM</t>
+  </si>
+  <si>
+    <t>(SP-LME)</t>
+  </si>
+  <si>
+    <t>5:49 AM</t>
+  </si>
+  <si>
+    <t>3:02 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 7 minutes</t>
+  </si>
+  <si>
+    <t>3:35 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBP)</t>
+  </si>
+  <si>
+    <t>3:37 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 2 minutes</t>
+  </si>
+  <si>
+    <t>4:44 PM</t>
+  </si>
+  <si>
+    <t>5:20 PM</t>
+  </si>
+  <si>
+    <t>(EI-EXF)</t>
+  </si>
+  <si>
+    <t>5:23 PM</t>
+  </si>
+  <si>
+    <t>8:30 PM</t>
+  </si>
+  <si>
+    <t>8:41 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 11 minutes</t>
   </si>
 </sst>
 </file>
@@ -644,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1943,6 +2015,302 @@
       </c>
       <c r="M35" s="0"/>
     </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="K38" s="0"/>
+      <c r="L38" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="M38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="K40" s="0"/>
+      <c r="L40" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M43" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="249">
   <si>
     <t>NUMBER</t>
   </si>
@@ -672,6 +672,93 @@
   </si>
   <si>
     <t>0 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>5:48 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>5:51 AM</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>K49705</t>
+  </si>
+  <si>
+    <t>Liege</t>
+  </si>
+  <si>
+    <t>(LGG)</t>
+  </si>
+  <si>
+    <t>(N700CK)</t>
+  </si>
+  <si>
+    <t>0 hours, 20 minutes</t>
+  </si>
+  <si>
+    <t>11:05 AM</t>
+  </si>
+  <si>
+    <t>OJ730</t>
+  </si>
+  <si>
+    <t>Tampere</t>
+  </si>
+  <si>
+    <t>(TMP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyxair </t>
+  </si>
+  <si>
+    <t>SB20</t>
+  </si>
+  <si>
+    <t>(ES-NSI)</t>
+  </si>
+  <si>
+    <t>11:25 AM</t>
+  </si>
+  <si>
+    <t>2:40 PM</t>
+  </si>
+  <si>
+    <t>E44323</t>
+  </si>
+  <si>
+    <t>Hurghada</t>
+  </si>
+  <si>
+    <t>(HRG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Air </t>
+  </si>
+  <si>
+    <t>(SP-ENP)</t>
+  </si>
+  <si>
+    <t>2:33 PM</t>
+  </si>
+  <si>
+    <t>4:49 PM</t>
+  </si>
+  <si>
+    <t>4:55 PM</t>
+  </si>
+  <si>
+    <t>(EI-DYB)</t>
+  </si>
+  <si>
+    <t>5:15 PM</t>
   </si>
 </sst>
 </file>
@@ -716,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2311,6 +2398,339 @@
       </c>
       <c r="M43" s="0"/>
     </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="K44" s="0"/>
+      <c r="L44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="M44" s="0"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="K45" s="0"/>
+      <c r="L45" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K46" s="0"/>
+      <c r="L46" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="K47" s="0"/>
+      <c r="L47" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="K48" s="0"/>
+      <c r="L48" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="M48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="K49" s="0"/>
+      <c r="L49" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="M49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="K50" s="0"/>
+      <c r="L50" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M50" s="0"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I51" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J51" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K51" s="0"/>
+      <c r="L51" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M51" s="0"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="0">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="J52" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="K52" s="0"/>
+      <c r="L52" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M52" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="271">
   <si>
     <t>NUMBER</t>
   </si>
@@ -759,6 +759,72 @@
   </si>
   <si>
     <t>5:15 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>4:41 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LMC)</t>
+  </si>
+  <si>
+    <t>5:53 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 13 minutes</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>X7592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenge Airlines </t>
+  </si>
+  <si>
+    <t>(OO-ACE)</t>
+  </si>
+  <si>
+    <t>9:39 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 39 minutes</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>(BER)</t>
+  </si>
+  <si>
+    <t>12:42 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>(SP-LNK)</t>
+  </si>
+  <si>
+    <t>1:35 PM</t>
+  </si>
+  <si>
+    <t>(EI-DCM)</t>
+  </si>
+  <si>
+    <t>1:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 15 minutes</t>
   </si>
 </sst>
 </file>
@@ -803,7 +869,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2731,6 +2797,228 @@
       </c>
       <c r="M52" s="0"/>
     </row>
+    <row r="53">
+      <c r="A53" t="n" s="0">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G53" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H53" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I53" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J53" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="K53" s="0"/>
+      <c r="L53" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="M53" s="0"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="0">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G54" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="J54" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="K54" s="0"/>
+      <c r="L54" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="M54" s="0"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n" s="0">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="G55" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="H55" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I55" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="J55" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="K55" s="0"/>
+      <c r="L55" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="M55" s="0"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n" s="0">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="G56" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="H56" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I56" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="J56" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="K56" s="0"/>
+      <c r="L56" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M56" s="0"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n" s="0">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G57" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J57" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K57" s="0"/>
+      <c r="L57" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M57" s="0"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n" s="0">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G58" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="J58" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="K58" s="0"/>
+      <c r="L58" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M58" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="292">
   <si>
     <t>NUMBER</t>
   </si>
@@ -825,6 +825,69 @@
   </si>
   <si>
     <t>0 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>2:45 PM</t>
+  </si>
+  <si>
+    <t>5Y9445</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>(HKG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas Air </t>
+  </si>
+  <si>
+    <t>(N452PA)</t>
+  </si>
+  <si>
+    <t>3:07 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 22 minutes</t>
+  </si>
+  <si>
+    <t>2:56 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>3:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AirPink </t>
+  </si>
+  <si>
+    <t>C525</t>
+  </si>
+  <si>
+    <t>(YU-MTU)</t>
+  </si>
+  <si>
+    <t>3:12 PM</t>
+  </si>
+  <si>
+    <t>4:54 PM</t>
+  </si>
+  <si>
+    <t>8:25 PM</t>
+  </si>
+  <si>
+    <t>8:34 PM</t>
+  </si>
+  <si>
+    <t>9:40 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair (Boeing Livery) </t>
+  </si>
+  <si>
+    <t>(EI-DCL)</t>
   </si>
 </sst>
 </file>
@@ -869,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3019,6 +3082,228 @@
       </c>
       <c r="M58" s="0"/>
     </row>
+    <row r="59">
+      <c r="A59" t="n" s="0">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G59" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H59" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I59" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="J59" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="K59" s="0"/>
+      <c r="L59" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M59" s="0"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="0">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I60" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="K60" s="0"/>
+      <c r="L60" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="M60" s="0"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="H61" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="I61" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="J61" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="K61" s="0"/>
+      <c r="L61" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M61" s="0"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n" s="0">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K62" s="0"/>
+      <c r="L62" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M62" s="0"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n" s="0">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="J63" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="K63" s="0"/>
+      <c r="L63" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M63" s="0"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n" s="0">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G64" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="H64" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="J64" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="K64" s="0"/>
+      <c r="L64" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M64" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
   <si>
     <t>NUMBER</t>
   </si>
@@ -888,6 +888,72 @@
   </si>
   <si>
     <t>(EI-DCL)</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>(SP-LMA)</t>
+  </si>
+  <si>
+    <t>(EI-EMI)</t>
+  </si>
+  <si>
+    <t>10:09 AM</t>
+  </si>
+  <si>
+    <t>11:18 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -2 minutes</t>
+  </si>
+  <si>
+    <t>12:26 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LYS)</t>
+  </si>
+  <si>
+    <t>11:48 AM</t>
+  </si>
+  <si>
+    <t>12:07 PM</t>
+  </si>
+  <si>
+    <t>(EI-HAT)</t>
+  </si>
+  <si>
+    <t>2:04 PM</t>
+  </si>
+  <si>
+    <t>2:35 PM</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>(HAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netjets Europe </t>
+  </si>
+  <si>
+    <t>C56X</t>
+  </si>
+  <si>
+    <t>(CS-DQA)</t>
+  </si>
+  <si>
+    <t>3:08 PM</t>
+  </si>
+  <si>
+    <t>3:59 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 44 minutes</t>
   </si>
 </sst>
 </file>
@@ -932,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3304,6 +3370,376 @@
       </c>
       <c r="M64" s="0"/>
     </row>
+    <row r="65">
+      <c r="A65" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G65" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I65" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J65" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="K65" s="0"/>
+      <c r="L65" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="M65" s="0"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n" s="0">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="J66" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="K66" s="0"/>
+      <c r="L66" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M66" s="0"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="K67" s="0"/>
+      <c r="L67" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="M67" s="0"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="0">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G68" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H68" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I68" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="J68" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="K68" s="0"/>
+      <c r="L68" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="M68" s="0"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="0">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H69" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="J69" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="K69" s="0"/>
+      <c r="L69" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="M69" s="0"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G70" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I70" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="J70" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="K70" s="0"/>
+      <c r="L70" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M70" s="0"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G71" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I71" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="J71" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="K71" s="0"/>
+      <c r="L71" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M71" s="0"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n" s="0">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="G72" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="H72" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="I72" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="J72" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="K72" s="0"/>
+      <c r="L72" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="M72" s="0"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G73" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I73" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="K73" s="0"/>
+      <c r="L73" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M73" s="0"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G74" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I74" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="J74" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="K74" s="0"/>
+      <c r="L74" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="M74" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="323">
   <si>
     <t>NUMBER</t>
   </si>
@@ -954,6 +954,33 @@
   </si>
   <si>
     <t>0 hours, 44 minutes</t>
+  </si>
+  <si>
+    <t>(G-WUKF)</t>
+  </si>
+  <si>
+    <t>10:07 PM</t>
+  </si>
+  <si>
+    <t>(EI-EFJ)</t>
+  </si>
+  <si>
+    <t>10:31 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 26 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkyUp Airlines (The Power Of Freedom Livery) </t>
+  </si>
+  <si>
+    <t>(UR-SQM)</t>
+  </si>
+  <si>
+    <t>12:27 AM</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3740,6 +3767,117 @@
       </c>
       <c r="M74" s="0"/>
     </row>
+    <row r="75">
+      <c r="A75" t="n" s="0">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H75" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="J75" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="K75" s="0"/>
+      <c r="L75" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M75" s="0"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I76" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="J76" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K76" s="0"/>
+      <c r="L76" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M76" s="0"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="0">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G77" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="H77" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J77" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="K77" s="0"/>
+      <c r="L77" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="M77" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="328">
   <si>
     <t>NUMBER</t>
   </si>
@@ -981,6 +981,21 @@
   </si>
   <si>
     <t>12:27 AM</t>
+  </si>
+  <si>
+    <t>(9H-LOT)</t>
+  </si>
+  <si>
+    <t>11:52 AM</t>
+  </si>
+  <si>
+    <t>12:08 PM</t>
+  </si>
+  <si>
+    <t>1:30 PM</t>
+  </si>
+  <si>
+    <t>(N485MC)</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3878,6 +3893,154 @@
       </c>
       <c r="M77" s="0"/>
     </row>
+    <row r="78">
+      <c r="A78" t="n" s="0">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H78" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="J78" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="K78" s="0"/>
+      <c r="L78" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="0">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G79" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H79" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J79" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="K79" s="0"/>
+      <c r="L79" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="0">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G80" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H80" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I80" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="J80" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="K80" s="0"/>
+      <c r="L80" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G81" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H81" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I81" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J81" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="K81" s="0"/>
+      <c r="L81" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M81" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="333">
   <si>
     <t>NUMBER</t>
   </si>
@@ -996,6 +996,21 @@
   </si>
   <si>
     <t>(N485MC)</t>
+  </si>
+  <si>
+    <t>4:00 PM</t>
+  </si>
+  <si>
+    <t>5:08 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LDK)</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4041,6 +4056,80 @@
       </c>
       <c r="M81" s="0"/>
     </row>
+    <row r="82">
+      <c r="A82" t="n" s="0">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G82" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="H82" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="I82" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="J82" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="K82" s="0"/>
+      <c r="L82" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="M82" s="0"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="0">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="H83" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I83" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="J83" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K83" s="0"/>
+      <c r="L83" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M83" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="339">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1011,6 +1011,24 @@
   </si>
   <si>
     <t>(SP-LDK)</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Sliwka Naleczowska Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNC)</t>
+  </si>
+  <si>
+    <t>5:46 AM</t>
+  </si>
+  <si>
+    <t>X7542</t>
+  </si>
+  <si>
+    <t>8:26 AM</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4130,6 +4148,80 @@
       </c>
       <c r="M83" s="0"/>
     </row>
+    <row r="84">
+      <c r="A84" t="n" s="0">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G84" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="H84" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I84" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="J84" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="K84" s="0"/>
+      <c r="L84" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M84" s="0"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="G85" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="H85" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I85" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="J85" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="K85" s="0"/>
+      <c r="L85" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M85" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="384">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1029,6 +1029,141 @@
   </si>
   <si>
     <t>8:26 AM</t>
+  </si>
+  <si>
+    <t>(SP-LNM)</t>
+  </si>
+  <si>
+    <t>R6954</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>(SOF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAT </t>
+  </si>
+  <si>
+    <t>(OY-RUZ)</t>
+  </si>
+  <si>
+    <t>5:24 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 24 minutes</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>10:32 AM</t>
+  </si>
+  <si>
+    <t>(HA-LWR)</t>
+  </si>
+  <si>
+    <t>11:59 AM</t>
+  </si>
+  <si>
+    <t>(EI-EBZ)</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>8:18 PM</t>
+  </si>
+  <si>
+    <t>(G-WUKI)</t>
+  </si>
+  <si>
+    <t>10:10 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>12:10 AM</t>
+  </si>
+  <si>
+    <t>FI7552</t>
+  </si>
+  <si>
+    <t>4:54 AM</t>
+  </si>
+  <si>
+    <t>(SP-LDF)</t>
+  </si>
+  <si>
+    <t>8:45 AM</t>
+  </si>
+  <si>
+    <t>HYP22</t>
+  </si>
+  <si>
+    <t>Larnaca</t>
+  </si>
+  <si>
+    <t>(LCA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyperion Aviation </t>
+  </si>
+  <si>
+    <t>CRJ2</t>
+  </si>
+  <si>
+    <t>(9H-VGA)</t>
+  </si>
+  <si>
+    <t>9:34 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LIB)</t>
+  </si>
+  <si>
+    <t>(EI-DYE)</t>
+  </si>
+  <si>
+    <t>4:47 PM</t>
+  </si>
+  <si>
+    <t>(EI-ENC)</t>
+  </si>
+  <si>
+    <t>5:28 PM</t>
+  </si>
+  <si>
+    <t>6:00 PM</t>
+  </si>
+  <si>
+    <t>GDK7</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>(VIE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldeck Flug </t>
+  </si>
+  <si>
+    <t>PC12</t>
+  </si>
+  <si>
+    <t>(OE-EPM)</t>
+  </si>
+  <si>
+    <t>6:27 PM</t>
+  </si>
+  <si>
+    <t>(EI-HGZ)</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4222,6 +4357,1264 @@
       </c>
       <c r="M85" s="0"/>
     </row>
+    <row r="86">
+      <c r="A86" t="n" s="0">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G86" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H86" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I86" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="J86" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="K86" s="0"/>
+      <c r="L86" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M86" s="0"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="0">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="G87" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="H87" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="J87" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="K87" s="0"/>
+      <c r="L87" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="M87" s="0"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G88" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H88" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I88" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J88" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K88" s="0"/>
+      <c r="L88" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M88" s="0"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G89" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H89" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I89" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J89" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K89" s="0"/>
+      <c r="L89" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M89" s="0"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="0">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="J90" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="K90" s="0"/>
+      <c r="L90" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M90" s="0"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="0">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J91" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K91" s="0"/>
+      <c r="L91" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="M91" s="0"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="0">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G92" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H92" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I92" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="J92" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="K92" s="0"/>
+      <c r="L92" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M92" s="0"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G93" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="H93" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I93" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="J93" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="K93" s="0"/>
+      <c r="L93" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M93" s="0"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="0">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G94" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I94" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J94" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="K94" s="0"/>
+      <c r="L94" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="M94" s="0"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n" s="0">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G95" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I95" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J95" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="K95" s="0"/>
+      <c r="L95" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="M95" s="0"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n" s="0">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J96" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="K96" s="0"/>
+      <c r="L96" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M96" s="0"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J97" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K97" s="0"/>
+      <c r="L97" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M97" s="0"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n" s="0">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G98" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H98" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="J98" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K98" s="0"/>
+      <c r="L98" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M98" s="0"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G99" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="H99" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J99" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="K99" s="0"/>
+      <c r="L99" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M99" s="0"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n" s="0">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="J100" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="K100" s="0"/>
+      <c r="L100" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M100" s="0"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G101" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H101" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="J101" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K101" s="0"/>
+      <c r="L101" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="M101" s="0"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n" s="0">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G102" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I102" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="J102" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="K102" s="0"/>
+      <c r="L102" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="M102" s="0"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n" s="0">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="K103" s="0"/>
+      <c r="L103" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M103" s="0"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n" s="0">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="K104" s="0"/>
+      <c r="L104" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="M104" s="0"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="n" s="0">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="K105" s="0"/>
+      <c r="L105" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="M105" s="0"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n" s="0">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="K106" s="0"/>
+      <c r="L106" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M106" s="0"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n" s="0">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J107" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="K107" s="0"/>
+      <c r="L107" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M107" s="0"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n" s="0">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H108" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="J108" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K108" s="0"/>
+      <c r="L108" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M108" s="0"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="G109" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="H109" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J109" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="K109" s="0"/>
+      <c r="L109" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M109" s="0"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n" s="0">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G110" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H110" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I110" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J110" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="K110" s="0"/>
+      <c r="L110" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M110" s="0"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G111" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H111" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I111" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="J111" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="K111" s="0"/>
+      <c r="L111" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M111" s="0"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n" s="0">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="G112" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="H112" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="I112" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J112" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="K112" s="0"/>
+      <c r="L112" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="M112" s="0"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G113" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H113" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I113" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="J113" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="K113" s="0"/>
+      <c r="L113" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="M113" s="0"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n" s="0">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G114" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H114" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I114" t="s" s="0">
+        <v>370</v>
+      </c>
+      <c r="J114" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="K114" s="0"/>
+      <c r="L114" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M114" s="0"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n" s="0">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I115" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="J115" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="K115" s="0"/>
+      <c r="L115" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M115" s="0"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H116" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I116" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J116" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="K116" s="0"/>
+      <c r="L116" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M116" s="0"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n" s="0">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G117" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H117" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I117" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="J117" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="K117" s="0"/>
+      <c r="L117" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M117" s="0"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G118" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="H118" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="I118" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="J118" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="K118" s="0"/>
+      <c r="L118" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M118" s="0"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n" s="0">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I119" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J119" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="K119" s="0"/>
+      <c r="L119" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="M119" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="464">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1164,6 +1164,246 @@
   </si>
   <si>
     <t>(EI-HGZ)</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t>5:00 AM</t>
+  </si>
+  <si>
+    <t>IFA6029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAI rent-a-jet </t>
+  </si>
+  <si>
+    <t>GLEX</t>
+  </si>
+  <si>
+    <t>(D-AFAM)</t>
+  </si>
+  <si>
+    <t>9:06 AM</t>
+  </si>
+  <si>
+    <t>5Y9462</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>(ICN)</t>
+  </si>
+  <si>
+    <t>(N493MC)</t>
+  </si>
+  <si>
+    <t>2 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>(OE-LRG)</t>
+  </si>
+  <si>
+    <t>2:47 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 57 minutes</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>5Y9447</t>
+  </si>
+  <si>
+    <t>(N454PA)</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 43 minutes</t>
+  </si>
+  <si>
+    <t>12:06 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHG)</t>
+  </si>
+  <si>
+    <t>2:13 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 38 minutes</t>
+  </si>
+  <si>
+    <t>2:00 PM</t>
+  </si>
+  <si>
+    <t>Graz</t>
+  </si>
+  <si>
+    <t>(GRZ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrol Air Ambulance </t>
+  </si>
+  <si>
+    <t>C55B</t>
+  </si>
+  <si>
+    <t>(D-CYKP)</t>
+  </si>
+  <si>
+    <t>0 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>2:59 PM</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>(NCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Aviation </t>
+  </si>
+  <si>
+    <t>(YL-ARE)</t>
+  </si>
+  <si>
+    <t>3:20 PM</t>
+  </si>
+  <si>
+    <t>4:56 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM</t>
+  </si>
+  <si>
+    <t>LH9934</t>
+  </si>
+  <si>
+    <t>Munich</t>
+  </si>
+  <si>
+    <t>(MUC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufthansa </t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>(D-AILW)</t>
+  </si>
+  <si>
+    <t>5:31 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBA)</t>
+  </si>
+  <si>
+    <t>1 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DPH)</t>
+  </si>
+  <si>
+    <t>11:10 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>4:30 AM</t>
+  </si>
+  <si>
+    <t>5X1553</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>(CGN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS </t>
+  </si>
+  <si>
+    <t>(N573UP)</t>
+  </si>
+  <si>
+    <t>12:16 PM</t>
+  </si>
+  <si>
+    <t>7 hours, 46 minutes</t>
+  </si>
+  <si>
+    <t>6:25 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 45 minutes</t>
+  </si>
+  <si>
+    <t>(EI-GSJ)</t>
+  </si>
+  <si>
+    <t>10:43 AM</t>
+  </si>
+  <si>
+    <t>10:10 AM</t>
+  </si>
+  <si>
+    <t>10:45 AM</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>(LNZ)</t>
+  </si>
+  <si>
+    <t>(D-CHZF)</t>
+  </si>
+  <si>
+    <t>10:33 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 40 minutes</t>
+  </si>
+  <si>
+    <t>12:33 PM</t>
+  </si>
+  <si>
+    <t>12:19 PM</t>
+  </si>
+  <si>
+    <t>12:46 PM</t>
+  </si>
+  <si>
+    <t>5Y9738</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>(ORD)</t>
+  </si>
+  <si>
+    <t>(N429MC)</t>
+  </si>
+  <si>
+    <t>1:40 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 54 minutes</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M119"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5615,6 +5855,894 @@
       </c>
       <c r="M119" s="0"/>
     </row>
+    <row r="120">
+      <c r="A120" t="n" s="0">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G120" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H120" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I120" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="J120" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="K120" s="0"/>
+      <c r="L120" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M120" s="0"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G121" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H121" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I121" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J121" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="K121" s="0"/>
+      <c r="L121" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="M121" s="0"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n" s="0">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="G122" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="H122" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="I122" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="J122" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="K122" s="0"/>
+      <c r="L122" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="M122" s="0"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n" s="0">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="G123" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H123" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I123" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="J123" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="K123" s="0"/>
+      <c r="L123" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M123" s="0"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n" s="0">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="G124" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="H124" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I124" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="J124" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="K124" s="0"/>
+      <c r="L124" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="M124" s="0"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n" s="0">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G125" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H125" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I125" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="J125" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="K125" s="0"/>
+      <c r="L125" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="M125" s="0"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="H126" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I126" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="J126" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="K126" s="0"/>
+      <c r="L126" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="M126" s="0"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G127" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I127" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="J127" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="K127" s="0"/>
+      <c r="L127" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="M127" s="0"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n" s="0">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="G128" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="H128" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="I128" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J128" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="K128" s="0"/>
+      <c r="L128" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="M128" s="0"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="n" s="0">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G129" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H129" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I129" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="J129" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="K129" s="0"/>
+      <c r="L129" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M129" s="0"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n" s="0">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="G130" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="H130" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="I130" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="J130" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="K130" s="0"/>
+      <c r="L130" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="M130" s="0"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G131" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H131" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I131" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="J131" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="K131" s="0"/>
+      <c r="L131" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M131" s="0"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="n" s="0">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="G132" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="H132" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="I132" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="J132" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="K132" s="0"/>
+      <c r="L132" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="M132" s="0"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n" s="0">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I133" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J133" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="K133" s="0"/>
+      <c r="L133" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="M133" s="0"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="n" s="0">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G134" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I134" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="J134" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="K134" s="0"/>
+      <c r="L134" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="M134" s="0"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="n" s="0">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="G135" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="H135" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I135" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="J135" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="K135" s="0"/>
+      <c r="L135" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="M135" s="0"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G136" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H136" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I136" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J136" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="K136" s="0"/>
+      <c r="L136" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="M136" s="0"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="n" s="0">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I137" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="J137" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="K137" s="0"/>
+      <c r="L137" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="M137" s="0"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="n" s="0">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="G138" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="H138" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="I138" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="J138" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="K138" s="0"/>
+      <c r="L138" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="M138" s="0"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="G139" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="H139" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="I139" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="J139" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="K139" s="0"/>
+      <c r="L139" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="M139" s="0"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="n" s="0">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I140" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J140" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="K140" s="0"/>
+      <c r="L140" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="M140" s="0"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="K141" s="0"/>
+      <c r="L141" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="M141" s="0"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H142" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="J142" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="K142" s="0"/>
+      <c r="L142" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M142" s="0"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H143" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I143" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="J143" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="K143" s="0"/>
+      <c r="L143" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="M143" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="499">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1166,28 +1166,226 @@
     <t>(EI-HGZ)</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t>5:00 AM</t>
-  </si>
-  <si>
-    <t>IFA6029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAI rent-a-jet </t>
-  </si>
-  <si>
-    <t>GLEX</t>
-  </si>
-  <si>
-    <t>(D-AFAM)</t>
-  </si>
-  <si>
-    <t>9:06 AM</t>
-  </si>
-  <si>
-    <t>5Y9462</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>3:06 PM</t>
+  </si>
+  <si>
+    <t>(SP-LDI)</t>
+  </si>
+  <si>
+    <t>4:42 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>Monday, Jan 23</t>
+  </si>
+  <si>
+    <t>12:11 AM</t>
+  </si>
+  <si>
+    <t>(EI-EKL)</t>
+  </si>
+  <si>
+    <t>12:21 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 46 minutes</t>
+  </si>
+  <si>
+    <t>(EI-ENR)</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrol Air Ambulance </t>
+  </si>
+  <si>
+    <t>C55B</t>
+  </si>
+  <si>
+    <t>(D-CYKP)</t>
+  </si>
+  <si>
+    <t>1:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LNO)</t>
+  </si>
+  <si>
+    <t>4:52 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 25</t>
+  </si>
+  <si>
+    <t>5:06 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Grzeski Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNB)</t>
+  </si>
+  <si>
+    <t>6:19 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>(CGN)</t>
+  </si>
+  <si>
+    <t>12:50 PM</t>
+  </si>
+  <si>
+    <t>5Y9447</t>
+  </si>
+  <si>
+    <t>B748</t>
+  </si>
+  <si>
+    <t>(N860GT)</t>
+  </si>
+  <si>
+    <t>1:02 PM</t>
+  </si>
+  <si>
+    <t>3:19 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 24 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DPH)</t>
+  </si>
+  <si>
+    <t>4:11 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>(EI-GJT)</t>
+  </si>
+  <si>
+    <t>6:15 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 55 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HGL)</t>
+  </si>
+  <si>
+    <t>9:06 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>12:21 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 16 minutes</t>
+  </si>
+  <si>
+    <t>4:49 AM</t>
+  </si>
+  <si>
+    <t>(SP-LIR)</t>
+  </si>
+  <si>
+    <t>5:45 AM</t>
+  </si>
+  <si>
+    <t>11:55 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>12:10 PM</t>
+  </si>
+  <si>
+    <t>SAZ62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Air-Ambulance </t>
+  </si>
+  <si>
+    <t>CL60</t>
+  </si>
+  <si>
+    <t>(HB-JWB)</t>
+  </si>
+  <si>
+    <t>12:18 PM</t>
+  </si>
+  <si>
+    <t>Poznan</t>
+  </si>
+  <si>
+    <t>(POZ)</t>
+  </si>
+  <si>
+    <t>(SP-ESE)</t>
+  </si>
+  <si>
+    <t>1:17 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -18 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>5:54 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>9:35 AM</t>
+  </si>
+  <si>
+    <t>KD8341</t>
+  </si>
+  <si>
+    <t>(HHN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Global Airlines </t>
+  </si>
+  <si>
+    <t>MD11</t>
+  </si>
+  <si>
+    <t>(N799JN)</t>
+  </si>
+  <si>
+    <t>11:23 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 48 minutes</t>
+  </si>
+  <si>
+    <t>11:27 AM</t>
+  </si>
+  <si>
+    <t>5Y9460</t>
   </si>
   <si>
     <t>Seoul</t>
@@ -1196,214 +1394,121 @@
     <t>(ICN)</t>
   </si>
   <si>
-    <t>(N493MC)</t>
-  </si>
-  <si>
-    <t>2 hours, 15 minutes</t>
-  </si>
-  <si>
-    <t>(OE-LRG)</t>
-  </si>
-  <si>
-    <t>2:47 PM</t>
-  </si>
-  <si>
-    <t>2 hours, 57 minutes</t>
-  </si>
-  <si>
-    <t>12:10 PM</t>
-  </si>
-  <si>
-    <t>5Y9447</t>
-  </si>
-  <si>
-    <t>(N454PA)</t>
-  </si>
-  <si>
-    <t>12:53 PM</t>
+    <t>(N450PA)</t>
+  </si>
+  <si>
+    <t>1:15 PM</t>
+  </si>
+  <si>
+    <t>Roskilde</t>
+  </si>
+  <si>
+    <t>(RKE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexflight </t>
+  </si>
+  <si>
+    <t>(OY-GSB)</t>
+  </si>
+  <si>
+    <t>1:16 PM</t>
+  </si>
+  <si>
+    <t>2:18 PM</t>
   </si>
   <si>
     <t>0 hours, 43 minutes</t>
   </si>
   <si>
-    <t>12:06 PM</t>
-  </si>
-  <si>
-    <t>(EI-DHG)</t>
-  </si>
-  <si>
-    <t>2:13 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 38 minutes</t>
-  </si>
-  <si>
-    <t>2:00 PM</t>
-  </si>
-  <si>
-    <t>Graz</t>
-  </si>
-  <si>
-    <t>(GRZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrol Air Ambulance </t>
-  </si>
-  <si>
-    <t>C55B</t>
-  </si>
-  <si>
-    <t>(D-CYKP)</t>
-  </si>
-  <si>
-    <t>0 hours, 35 minutes</t>
-  </si>
-  <si>
-    <t>2:59 PM</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>(NCE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union Aviation </t>
-  </si>
-  <si>
-    <t>(YL-ARE)</t>
-  </si>
-  <si>
-    <t>3:20 PM</t>
-  </si>
-  <si>
-    <t>4:56 PM</t>
+    <t>4:02 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 7 minutes</t>
+  </si>
+  <si>
+    <t>4:53 PM</t>
   </si>
   <si>
     <t>5:00 PM</t>
   </si>
   <si>
-    <t>LH9934</t>
-  </si>
-  <si>
-    <t>Munich</t>
-  </si>
-  <si>
-    <t>(MUC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lufthansa </t>
-  </si>
-  <si>
-    <t>A319</t>
-  </si>
-  <si>
-    <t>(D-AILW)</t>
-  </si>
-  <si>
-    <t>5:31 PM</t>
-  </si>
-  <si>
-    <t>(EI-EBA)</t>
-  </si>
-  <si>
-    <t>1 hours, 15 minutes</t>
-  </si>
-  <si>
-    <t>(EI-DPH)</t>
-  </si>
-  <si>
-    <t>11:10 PM</t>
-  </si>
-  <si>
-    <t>1 hours, 30 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>4:30 AM</t>
-  </si>
-  <si>
-    <t>5X1553</t>
-  </si>
-  <si>
-    <t>Cologne</t>
-  </si>
-  <si>
-    <t>(CGN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPS </t>
-  </si>
-  <si>
-    <t>(N573UP)</t>
-  </si>
-  <si>
-    <t>12:16 PM</t>
-  </si>
-  <si>
-    <t>7 hours, 46 minutes</t>
-  </si>
-  <si>
-    <t>6:25 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 45 minutes</t>
-  </si>
-  <si>
-    <t>(EI-GSJ)</t>
-  </si>
-  <si>
-    <t>10:43 AM</t>
-  </si>
-  <si>
-    <t>10:10 AM</t>
-  </si>
-  <si>
-    <t>10:45 AM</t>
-  </si>
-  <si>
-    <t>Linz</t>
-  </si>
-  <si>
-    <t>(LNZ)</t>
-  </si>
-  <si>
-    <t>(D-CHZF)</t>
-  </si>
-  <si>
-    <t>10:33 AM</t>
-  </si>
-  <si>
-    <t>0 hours, 40 minutes</t>
-  </si>
-  <si>
-    <t>12:33 PM</t>
-  </si>
-  <si>
-    <t>12:19 PM</t>
-  </si>
-  <si>
-    <t>12:46 PM</t>
-  </si>
-  <si>
-    <t>5Y9738</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>(ORD)</t>
-  </si>
-  <si>
-    <t>(N429MC)</t>
-  </si>
-  <si>
-    <t>1:40 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 54 minutes</t>
+    <t>LO9002</t>
+  </si>
+  <si>
+    <t>5:14 PM</t>
+  </si>
+  <si>
+    <t>(EI-HGR)</t>
+  </si>
+  <si>
+    <t>9:25 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>9:00 PM</t>
+  </si>
+  <si>
+    <t>SAR126</t>
+  </si>
+  <si>
+    <t>Nuremberg</t>
+  </si>
+  <si>
+    <t>(NUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SprintAir </t>
+  </si>
+  <si>
+    <t>(SP-KPE)</t>
+  </si>
+  <si>
+    <t>(EI-DWG)</t>
+  </si>
+  <si>
+    <t>10:12 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 32 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>(EI-GSH)</t>
+  </si>
+  <si>
+    <t>10:28 AM</t>
+  </si>
+  <si>
+    <t>11:33 AM</t>
+  </si>
+  <si>
+    <t>(N415MC)</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>(HA-LYJ)</t>
+  </si>
+  <si>
+    <t>(N706CK)</t>
+  </si>
+  <si>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>2:14 PM</t>
+  </si>
+  <si>
+    <t>(EI-ENX)</t>
+  </si>
+  <si>
+    <t>3:27 PM</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5863,32 +5968,32 @@
         <v>384</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>198</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s" s="0">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s" s="0">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s" s="0">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="H120" t="s" s="0">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="I120" t="s" s="0">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="J120" t="s" s="0">
         <v>385</v>
       </c>
       <c r="K120" s="0"/>
       <c r="L120" t="s" s="0">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="M120" s="0"/>
     </row>
@@ -5900,10 +6005,10 @@
         <v>384</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E121" t="s" s="0">
         <v>39</v>
@@ -5915,17 +6020,17 @@
         <v>41</v>
       </c>
       <c r="H121" t="s" s="0">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="I121" t="s" s="0">
-        <v>129</v>
+        <v>386</v>
       </c>
       <c r="J121" t="s" s="0">
-        <v>206</v>
+        <v>387</v>
       </c>
       <c r="K121" s="0"/>
       <c r="L121" t="s" s="0">
-        <v>100</v>
+        <v>388</v>
       </c>
       <c r="M121" s="0"/>
     </row>
@@ -5934,35 +6039,35 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="F122" t="s" s="0">
-        <v>378</v>
+        <v>142</v>
       </c>
       <c r="G122" t="s" s="0">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="H122" t="s" s="0">
-        <v>388</v>
+        <v>17</v>
       </c>
       <c r="I122" t="s" s="0">
-        <v>389</v>
+        <v>144</v>
       </c>
       <c r="J122" t="s" s="0">
         <v>390</v>
       </c>
       <c r="K122" s="0"/>
       <c r="L122" t="s" s="0">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="M122" s="0"/>
     </row>
@@ -5971,35 +6076,35 @@
         <v>122.0</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>391</v>
+        <v>117</v>
       </c>
       <c r="E123" t="s" s="0">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s" s="0">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s" s="0">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="H123" t="s" s="0">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="I123" t="s" s="0">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="J123" t="s" s="0">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="K123" s="0"/>
       <c r="L123" t="s" s="0">
-        <v>395</v>
+        <v>96</v>
       </c>
       <c r="M123" s="0"/>
     </row>
@@ -6008,35 +6113,35 @@
         <v>123.0</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>256</v>
+        <v>121</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>226</v>
+        <v>122</v>
       </c>
       <c r="F124" t="s" s="0">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="G124" t="s" s="0">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="H124" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I124" t="s" s="0">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J124" t="s" s="0">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K124" s="0"/>
       <c r="L124" t="s" s="0">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M124" s="0"/>
     </row>
@@ -6045,35 +6150,35 @@
         <v>124.0</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>399</v>
+        <v>21</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s" s="0">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="G125" t="s" s="0">
-        <v>275</v>
+        <v>16</v>
       </c>
       <c r="H125" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I125" t="s" s="0">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="J125" t="s" s="0">
-        <v>402</v>
+        <v>95</v>
       </c>
       <c r="K125" s="0"/>
       <c r="L125" t="s" s="0">
-        <v>403</v>
+        <v>80</v>
       </c>
       <c r="M125" s="0"/>
     </row>
@@ -6082,35 +6187,35 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>265</v>
+        <v>395</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>39</v>
+        <v>377</v>
       </c>
       <c r="F126" t="s" s="0">
-        <v>40</v>
+        <v>378</v>
       </c>
       <c r="G126" t="s" s="0">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="H126" t="s" s="0">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="I126" t="s" s="0">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="J126" t="s" s="0">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K126" s="0"/>
       <c r="L126" t="s" s="0">
-        <v>45</v>
+        <v>400</v>
       </c>
       <c r="M126" s="0"/>
     </row>
@@ -6119,35 +6224,35 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>267</v>
+        <v>97</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E127" t="s" s="0">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s" s="0">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H127" t="s" s="0">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I127" t="s" s="0">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J127" t="s" s="0">
-        <v>406</v>
+        <v>281</v>
       </c>
       <c r="K127" s="0"/>
       <c r="L127" t="s" s="0">
-        <v>407</v>
+        <v>73</v>
       </c>
       <c r="M127" s="0"/>
     </row>
@@ -6156,35 +6261,35 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s" s="0">
-        <v>408</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E128" t="s" s="0">
-        <v>409</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>410</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s" s="0">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="H128" t="s" s="0">
-        <v>412</v>
+        <v>103</v>
       </c>
       <c r="I128" t="s" s="0">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="J128" t="s" s="0">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="K128" s="0"/>
       <c r="L128" t="s" s="0">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="M128" s="0"/>
     </row>
@@ -6193,35 +6298,35 @@
         <v>128.0</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C129" t="s" s="0">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="E129" t="s" s="0">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="G129" t="s" s="0">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="H129" t="s" s="0">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="I129" t="s" s="0">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="J129" t="s" s="0">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="K129" s="0"/>
       <c r="L129" t="s" s="0">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="M129" s="0"/>
     </row>
@@ -6230,35 +6335,35 @@
         <v>129.0</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>281</v>
+        <v>116</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="E130" t="s" s="0">
-        <v>416</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s" s="0">
-        <v>417</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s" s="0">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="H130" t="s" s="0">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I130" t="s" s="0">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="J130" t="s" s="0">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="K130" s="0"/>
       <c r="L130" t="s" s="0">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="M130" s="0"/>
     </row>
@@ -6267,35 +6372,35 @@
         <v>130.0</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C131" t="s" s="0">
-        <v>101</v>
+        <v>408</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="E131" t="s" s="0">
-        <v>39</v>
+        <v>409</v>
       </c>
       <c r="F131" t="s" s="0">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="G131" t="s" s="0">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H131" t="s" s="0">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="I131" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="J131" t="s" s="0">
-        <v>421</v>
+        <v>87</v>
       </c>
       <c r="K131" s="0"/>
       <c r="L131" t="s" s="0">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="M131" s="0"/>
     </row>
@@ -6304,35 +6409,35 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E132" t="s" s="0">
-        <v>424</v>
+        <v>273</v>
       </c>
       <c r="F132" t="s" s="0">
-        <v>425</v>
+        <v>274</v>
       </c>
       <c r="G132" t="s" s="0">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="H132" t="s" s="0">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="I132" t="s" s="0">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="J132" t="s" s="0">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="K132" s="0"/>
       <c r="L132" t="s" s="0">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="M132" s="0"/>
     </row>
@@ -6341,35 +6446,35 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C133" t="s" s="0">
-        <v>287</v>
+        <v>97</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E133" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H133" t="s" s="0">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I133" t="s" s="0">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="J133" t="s" s="0">
-        <v>289</v>
+        <v>416</v>
       </c>
       <c r="K133" s="0"/>
       <c r="L133" t="s" s="0">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="M133" s="0"/>
     </row>
@@ -6378,19 +6483,19 @@
         <v>133.0</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="C134" t="s" s="0">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s" s="0">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G134" t="s" s="0">
         <v>16</v>
@@ -6399,14 +6504,14 @@
         <v>17</v>
       </c>
       <c r="I134" t="s" s="0">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="J134" t="s" s="0">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="K134" s="0"/>
       <c r="L134" t="s" s="0">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="M134" s="0"/>
     </row>
@@ -6415,35 +6520,35 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>436</v>
+        <v>101</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="E135" t="s" s="0">
-        <v>438</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s" s="0">
-        <v>439</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s" s="0">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="H135" t="s" s="0">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="I135" t="s" s="0">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="J135" t="s" s="0">
-        <v>442</v>
+        <v>101</v>
       </c>
       <c r="K135" s="0"/>
       <c r="L135" t="s" s="0">
-        <v>443</v>
+        <v>105</v>
       </c>
       <c r="M135" s="0"/>
     </row>
@@ -6452,35 +6557,35 @@
         <v>135.0</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E136" t="s" s="0">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G136" t="s" s="0">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H136" t="s" s="0">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I136" t="s" s="0">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="J136" t="s" s="0">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="K136" s="0"/>
       <c r="L136" t="s" s="0">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="M136" s="0"/>
     </row>
@@ -6489,35 +6594,35 @@
         <v>136.0</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="C137" t="s" s="0">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D137" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E137" t="s" s="0">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F137" t="s" s="0">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G137" t="s" s="0">
         <v>16</v>
       </c>
       <c r="H137" t="s" s="0">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I137" t="s" s="0">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="J137" t="s" s="0">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="K137" s="0"/>
       <c r="L137" t="s" s="0">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="M137" s="0"/>
     </row>
@@ -6526,35 +6631,35 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>448</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E138" t="s" s="0">
-        <v>409</v>
+        <v>141</v>
       </c>
       <c r="F138" t="s" s="0">
-        <v>410</v>
+        <v>142</v>
       </c>
       <c r="G138" t="s" s="0">
-        <v>411</v>
+        <v>143</v>
       </c>
       <c r="H138" t="s" s="0">
-        <v>412</v>
+        <v>17</v>
       </c>
       <c r="I138" t="s" s="0">
-        <v>413</v>
+        <v>144</v>
       </c>
       <c r="J138" t="s" s="0">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="K138" s="0"/>
       <c r="L138" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="M138" s="0"/>
     </row>
@@ -6563,35 +6668,35 @@
         <v>138.0</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C139" t="s" s="0">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="E139" t="s" s="0">
-        <v>450</v>
+        <v>199</v>
       </c>
       <c r="F139" t="s" s="0">
-        <v>451</v>
+        <v>200</v>
       </c>
       <c r="G139" t="s" s="0">
-        <v>411</v>
+        <v>201</v>
       </c>
       <c r="H139" t="s" s="0">
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="I139" t="s" s="0">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="J139" t="s" s="0">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="K139" s="0"/>
       <c r="L139" t="s" s="0">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="M139" s="0"/>
     </row>
@@ -6600,35 +6705,35 @@
         <v>139.0</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="E140" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H140" t="s" s="0">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="I140" t="s" s="0">
-        <v>25</v>
+        <v>430</v>
       </c>
       <c r="J140" t="s" s="0">
-        <v>37</v>
+        <v>431</v>
       </c>
       <c r="K140" s="0"/>
       <c r="L140" t="s" s="0">
-        <v>454</v>
+        <v>73</v>
       </c>
       <c r="M140" s="0"/>
     </row>
@@ -6637,35 +6742,35 @@
         <v>140.0</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C141" t="s" s="0">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E141" t="s" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F141" t="s" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H141" t="s" s="0">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I141" t="s" s="0">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="J141" t="s" s="0">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="K141" s="0"/>
       <c r="L141" t="s" s="0">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="M141" s="0"/>
     </row>
@@ -6674,35 +6779,35 @@
         <v>141.0</v>
       </c>
       <c r="B142" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="D142" t="s" s="0">
         <v>435</v>
       </c>
-      <c r="C142" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="D142" t="s" s="0">
-        <v>38</v>
-      </c>
       <c r="E142" t="s" s="0">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F142" t="s" s="0">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s" s="0">
-        <v>41</v>
+        <v>436</v>
       </c>
       <c r="H142" t="s" s="0">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="I142" t="s" s="0">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="J142" t="s" s="0">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="K142" s="0"/>
       <c r="L142" t="s" s="0">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="M142" s="0"/>
     </row>
@@ -6711,37 +6816,851 @@
         <v>142.0</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>457</v>
+        <v>267</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>458</v>
+        <v>239</v>
       </c>
       <c r="E143" t="s" s="0">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="F143" t="s" s="0">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G143" t="s" s="0">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="H143" t="s" s="0">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I143" t="s" s="0">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="J143" t="s" s="0">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="K143" s="0"/>
       <c r="L143" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="M143" s="0"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H144" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I144" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J144" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K144" s="0"/>
+      <c r="L144" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M144" s="0"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="H145" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="I145" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="J145" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="K145" s="0"/>
+      <c r="L145" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="M145" s="0"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="H146" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="I146" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="J146" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="K146" s="0"/>
+      <c r="L146" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="M146" s="0"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H147" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I147" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="J147" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="M147" s="0"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="F148" t="s" s="0">
         <v>463</v>
       </c>
-      <c r="M143" s="0"/>
+      <c r="G148" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="H148" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="I148" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="J148" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="M148" s="0"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I149" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="J149" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="K149" s="0"/>
+      <c r="L149" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="M149" s="0"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H150" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I150" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="J150" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K150" s="0"/>
+      <c r="L150" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="M150" s="0"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H151" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I151" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J151" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="K151" s="0"/>
+      <c r="L151" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="M151" s="0"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H152" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I152" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J152" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="K152" s="0"/>
+      <c r="L152" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M152" s="0"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I153" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="J153" t="s" s="0">
+        <v>476</v>
+      </c>
+      <c r="K153" s="0"/>
+      <c r="L153" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="M153" s="0"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="H154" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="I154" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="J154" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="K154" s="0"/>
+      <c r="L154" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M154" s="0"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I155" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="J155" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="K155" s="0"/>
+      <c r="L155" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="M155" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="H156" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I156" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="J156" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="K156" s="0"/>
+      <c r="L156" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="M156" s="0"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I157" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="J157" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="K157" s="0"/>
+      <c r="L157" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M157" s="0"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I158" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="J158" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="K158" s="0"/>
+      <c r="L158" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="M158" s="0"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H159" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I159" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="J159" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="K159" s="0"/>
+      <c r="L159" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="M159" s="0"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H160" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I160" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="J160" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K160" s="0"/>
+      <c r="L160" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="M160" s="0"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H161" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="I161" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="J161" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="K161" s="0"/>
+      <c r="L161" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="M161" s="0"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="H162" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I162" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="J162" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="K162" s="0"/>
+      <c r="L162" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="M162" s="0"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I163" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="J163" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="K163" s="0"/>
+      <c r="L163" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="M163" s="0"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H164" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I164" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="J164" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="K164" s="0"/>
+      <c r="L164" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="M164" s="0"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I165" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="J165" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="K165" s="0"/>
+      <c r="L165" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="M165" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/RZE_Departures.xlsx
+++ b/DataBase/RZE_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="534">
   <si>
     <t>NUMBER</t>
   </si>
@@ -1509,6 +1509,111 @@
   </si>
   <si>
     <t>3:27 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>(9H-LOO)</t>
+  </si>
+  <si>
+    <t>12:04 PM</t>
+  </si>
+  <si>
+    <t>(N446MC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Warmia Mazury Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNF)</t>
+  </si>
+  <si>
+    <t>8C204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Transport International </t>
+  </si>
+  <si>
+    <t>B763</t>
+  </si>
+  <si>
+    <t>(N395CM)</t>
+  </si>
+  <si>
+    <t>4:35 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>5:01 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>10:38 AM</t>
+  </si>
+  <si>
+    <t>(EI-EPC)</t>
+  </si>
+  <si>
+    <t>12:29 PM</t>
+  </si>
+  <si>
+    <t>12:45 PM</t>
+  </si>
+  <si>
+    <t>VJT720</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>(PSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VistaJet Malta </t>
+  </si>
+  <si>
+    <t>GLEX</t>
+  </si>
+  <si>
+    <t>(9H-VJC)</t>
+  </si>
+  <si>
+    <t>(N856GT)</t>
+  </si>
+  <si>
+    <t>1:04 PM</t>
+  </si>
+  <si>
+    <t>3:28 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMF)</t>
+  </si>
+  <si>
+    <t>TWG255</t>
+  </si>
+  <si>
+    <t>Bremen</t>
+  </si>
+  <si>
+    <t>(BRE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air-Taxi Europe </t>
+  </si>
+  <si>
+    <t>F406</t>
+  </si>
+  <si>
+    <t>(D-ITTT)</t>
+  </si>
+  <si>
+    <t>5:46 PM</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7662,6 +7767,561 @@
       </c>
       <c r="M165" s="0"/>
     </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H166" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I166" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="J166" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="K166" s="0"/>
+      <c r="L166" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="M166" s="0"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="F167" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="G167" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H167" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="I167" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="J167" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="K167" s="0"/>
+      <c r="L167" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="M167" s="0"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F168" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="H168" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I168" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="J168" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="K168" s="0"/>
+      <c r="L168" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="M168" s="0"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F169" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G169" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H169" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I169" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J169" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K169" s="0"/>
+      <c r="L169" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M169" s="0"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F170" t="s" s="0">
+        <v>450</v>
+      </c>
+      <c r="G170" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="H170" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="I170" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="J170" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="K170" s="0"/>
+      <c r="L170" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="M170" s="0"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F171" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G171" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H171" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I171" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="J171" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="K171" s="0"/>
+      <c r="L171" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="M171" s="0"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F172" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G172" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="H172" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="I172" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="J172" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="K172" s="0"/>
+      <c r="L172" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M172" s="0"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F173" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="G173" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I173" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="J173" t="s" s="0">
+        <v>513</v>
+      </c>
+      <c r="K173" s="0"/>
+      <c r="L173" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="M173" s="0"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F174" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G174" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I174" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="J174" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K174" s="0"/>
+      <c r="L174" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M174" s="0"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F175" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G175" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H175" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I175" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="J175" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="K175" s="0"/>
+      <c r="L175" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M175" s="0"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="F176" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="G176" t="s" s="0">
+        <v>520</v>
+      </c>
+      <c r="H176" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="I176" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="J176" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="K176" s="0"/>
+      <c r="L176" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M176" s="0"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="F177" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="G177" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="H177" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="I177" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="J177" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="K177" s="0"/>
+      <c r="L177" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="M177" s="0"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F178" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G178" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H178" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="I178" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="J178" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="K178" s="0"/>
+      <c r="L178" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="M178" s="0"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F179" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G179" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H179" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I179" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="J179" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K179" s="0"/>
+      <c r="L179" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="M179" s="0"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="F180" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="G180" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="H180" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="I180" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="J180" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="K180" s="0"/>
+      <c r="L180" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="M180" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
